--- a/finalResults/1.timeComputing/Tempo UCI.xlsx
+++ b/finalResults/1.timeComputing/Tempo UCI.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Algoritmo</t>
   </si>
@@ -52,25 +52,13 @@
     <t xml:space="preserve">MEAN</t>
   </si>
   <si>
-    <t xml:space="preserve">LPR0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realiza imputação por média para cada classe no treino (FIT). No TRANSFORM faz imputação por média para todo o dataset de entrada. Realiza Label propagation para cada classe somente no treino do LP e para cada grupo (K-means) no predict.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realiza imputação por média para cada classe no treino (FIT). Realiza filtragem do dataset durante o FIT. No TRANSFORM faz imputação por média para todo o dataset de entrada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR2</t>
+    <t xml:space="preserve">LPMD2</t>
   </si>
   <si>
     <t xml:space="preserve">Realiza imputação por média para cada classe no treino (FIT). Realiza filtragem do dataset durante o FIT. No TRANSFORM faz imputação por média para todo o dataset de entrada. Realiza filtragem durante o LP do TRANSFORM.</t>
   </si>
   <si>
-    <t xml:space="preserve">LPR3</t>
+    <t xml:space="preserve">LPMD</t>
   </si>
   <si>
     <t xml:space="preserve">Inicializa com lixo</t>
@@ -83,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -127,13 +115,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -188,7 +169,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,10 +195,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -238,13 +215,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="16.92"/>
@@ -358,16 +335,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>317.1257</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>886.2383</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>149.3093</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>229.7341</v>
+        <v>150.4498</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>149.2773</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>151.2169</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>222.2503</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>11</v>
@@ -378,63 +355,23 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>140.7418</v>
+        <v>145.1529</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>136.2957</v>
+        <v>123.8216</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>145.254</v>
+        <v>129.1156</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>210.2152</v>
-      </c>
-      <c r="F8" s="7" t="s">
+        <v>186.1912</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>150.4498</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>149.2773</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>151.2169</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>222.2503</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>145.1529</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>123.8216</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>129.1156</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>186.1912</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E10 B2:C10">
+  <conditionalFormatting sqref="E2:E8 B2:C8">
     <cfRule type="dataBar" priority="2">
       <dataBar showValue="1" minLength="0" maxLength="100">
         <cfvo type="min" val="0"/>
@@ -443,12 +380,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FC7F4B43-63F3-4F7A-A221-E2AFAE495A5C}</x14:id>
+          <x14:id>{A870DAD0-D4D8-468B-B62C-321DE014C4AF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D10">
+  <conditionalFormatting sqref="D2:D8">
     <cfRule type="dataBar" priority="3">
       <dataBar showValue="1" minLength="0" maxLength="100">
         <cfvo type="min" val="0"/>
@@ -457,12 +394,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2F79EF34-86E5-4D9F-9840-3CC6FAB0EF44}</x14:id>
+          <x14:id>{43C749D0-431F-4650-9EB5-83C81EA93D6B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E10">
+  <conditionalFormatting sqref="B2:E8">
     <cfRule type="dataBar" priority="4">
       <dataBar showValue="1" minLength="0" maxLength="100">
         <cfvo type="min" val="0"/>
@@ -471,7 +408,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{99CB82DC-4E93-41A0-AA58-E2D04468582A}</x14:id>
+          <x14:id>{12BD7248-E21C-4373-B7AF-7CC2CAB27DAF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -487,7 +424,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FC7F4B43-63F3-4F7A-A221-E2AFAE495A5C}">
+          <x14:cfRule type="dataBar" id="{A870DAD0-D4D8-468B-B62C-321DE014C4AF}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -495,10 +432,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E10 B2:C10</xm:sqref>
+          <xm:sqref>E2:E8 B2:C8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2F79EF34-86E5-4D9F-9840-3CC6FAB0EF44}">
+          <x14:cfRule type="dataBar" id="{43C749D0-431F-4650-9EB5-83C81EA93D6B}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -506,10 +443,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D10</xm:sqref>
+          <xm:sqref>D2:D8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{99CB82DC-4E93-41A0-AA58-E2D04468582A}">
+          <x14:cfRule type="dataBar" id="{12BD7248-E21C-4373-B7AF-7CC2CAB27DAF}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -517,7 +454,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2:E10</xm:sqref>
+          <xm:sqref>B2:E8</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
